--- a/public/place.xlsx
+++ b/public/place.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\GH\PamanDeDe\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F0A5E7-4D64-4E43-AAD2-7AC9947EE85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84B222D-D239-4B17-9B33-AD43997A1297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D42B885-69CB-4113-BAD8-663C308F3479}"/>
+    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{3D42B885-69CB-4113-BAD8-663C308F3479}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Longitude</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>Latitude</t>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+  </si>
+  <si>
+    <t>/images/sentong.jpg</t>
+  </si>
+  <si>
+    <t>/images/patemon.jpg</t>
+  </si>
+  <si>
+    <t>Kepala Desa : Sugianto</t>
+  </si>
+  <si>
+    <t>Kepala Desa : Subandi</t>
   </si>
 </sst>
 </file>
@@ -475,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2434F6D6-8667-49B4-836D-9082F8D1BA9D}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,9 +502,10 @@
     <col min="2" max="2" width="16.6328125" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -502,8 +518,14 @@
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>-7.7887482784265796</v>
       </c>
@@ -516,8 +538,11 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>-7.8042675816277498</v>
       </c>
@@ -530,8 +555,11 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>-7.7892585113615196</v>
       </c>
@@ -545,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>-7.7945415104045601</v>
       </c>
@@ -559,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>-7.7863140341393597</v>
       </c>
@@ -573,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>-7.78215478294777</v>
       </c>
@@ -587,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>-7.7755696482690704</v>
       </c>
@@ -601,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>-7.7771309546500103</v>
       </c>
@@ -614,8 +642,11 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>-7.7952298713588704</v>
       </c>
@@ -629,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>-7.7978114902229896</v>
       </c>
@@ -643,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>-7.8003665508035898</v>
       </c>
@@ -657,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>-7.8056626964492404</v>
       </c>
@@ -671,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>-7.8132740667608198</v>
       </c>
@@ -685,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>-7.8064899033904798</v>
       </c>
@@ -699,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>-7.8099763340591304</v>
       </c>
@@ -713,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>-7.8104652823576899</v>
       </c>
@@ -726,8 +757,11 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>-7.79202037389057</v>
       </c>
@@ -741,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>-7.8042258337119996</v>
       </c>
@@ -755,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>-7.7964273430340896</v>
       </c>
@@ -769,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>-7.7928345019160901</v>
       </c>
@@ -783,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>-7.7979517456660199</v>
       </c>
@@ -797,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>-7.7939018396387301</v>
       </c>
@@ -811,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>-7.8038033123152699</v>
       </c>
